--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/76_Urfa_2018.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/76_Urfa_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01EB5D85-0D91-4DF1-ABF2-02587757E1C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E70FFC01-B4C0-451E-A213-2A6F59414DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="684" xr2:uid="{904D26BD-C34B-42BF-A20E-639BDC013F70}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="684" xr2:uid="{31550C14-E856-49AC-BF49-B46C8C4C3217}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="91" r:id="rId1"/>
@@ -978,14 +978,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{5879725D-E378-4CE6-B332-B42569A0B62D}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{C1B8F520-CF41-45B1-9CA8-C7F56396E2C7}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{52B402FA-1CB6-4682-AB23-74DD3B4DB035}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{138B7BC0-BA17-4992-8950-052057E3B54E}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{DE303F2E-9545-4923-A2F2-4810B66A331D}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{BB6EB449-15E7-43FE-B638-4E51FB59E17E}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{EE59D25B-B701-4D04-B7DF-78608BBD6005}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{94642465-1479-4875-A704-820A29737CBF}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{7D67319D-40F3-450A-94C9-935D1BC5F6D1}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{F087A4B7-401B-45C0-9B92-444161A60C49}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{BE07E49A-D5DF-4719-A0D7-9C2047D747BE}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{4AE071F4-059E-4759-ACA7-9D97A60D805F}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{4B6499D4-63B2-4C5E-9A16-10D82F2DB9E1}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{7539F092-D908-4E2A-89C9-D4E81BDE8707}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{26884379-8D2D-4FEA-897A-38C8586672F3}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{A0A21FD4-3AE8-4449-AFEE-6C99C4918356}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1355,7 +1355,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA388DC-4BB0-48B5-AC1F-137CD83C4997}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5714B7BA-C603-49FA-9681-4BABF1392358}">
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2613,18 +2613,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3EBDB83C-B354-403F-8C0F-0F5FF143ABFB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3AC1C38C-FF90-4543-AA8E-806FB914BD2D}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{195AF69B-37E5-4A7B-B6E2-0B55EB5F33F4}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9BE19482-F6F7-40DA-9E05-338B34C23EE3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D7052EB1-C3CA-4608-9A77-093733ADDFE7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A9E44678-B3C6-46CA-994A-1E61BB8BE816}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F8A07FF7-9296-4CE2-B9D7-3528A76EF94E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{06E5E0DF-7AEC-4CC2-ABAA-431E2314D723}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DDB15730-CCEB-44B9-98C3-9631DC01095F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8AE70658-AD8F-4FE9-8EE8-A27B4C0DF656}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E3344F7F-04B2-4BE5-AB95-6B0BEB9AC07F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9B2111C8-9D74-4570-82C3-2FF4F52C06E8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F7288199-A361-4F75-A892-34FFD918F16C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CAC1C4A1-DF08-4951-8450-69F2E1395BB4}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{644E6518-F364-4D28-AFBB-F8B897B3708A}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4694BCFA-ABA4-4625-8E83-48B901087230}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D28D8FE1-498D-47A1-B4A8-3FD6C56D20BE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AB1AB73B-A58D-48CC-954A-A0FAE535D818}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5C473370-1A10-45FB-AAEA-A5FF14118B28}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FB4FC335-FA7E-43CB-A5BB-793E1F84D30B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3A472868-EA1C-4F27-9AB4-EADA216ED25A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{682E1862-9E4D-4429-94A6-AECD280D9BEA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9453599C-DC3E-4397-AED8-0F9BA78FE4D1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0606EC0B-8C9E-421D-A174-109C8E8C110C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2637,7 +2637,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99EE597E-4A9B-486B-B972-D3BFC71DA3FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E85A913-81B0-4AD6-AFCB-10765B5D7156}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="A1:F100"/>
   <sheetViews>
@@ -3872,18 +3872,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4B755146-708D-4063-908D-9534E3AEDE9D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1555E209-5F7E-414F-8195-A1008A099EC7}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5718C786-AC29-4CC0-8E33-B04C312DF544}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{82B38BA6-2474-4CBD-919A-4F462CC3AD35}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{089C2C18-AF17-48BE-B849-3053F6B29F79}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{541306A7-9609-4566-B8EF-A2E28DBF7CD8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4E2383D1-7EB1-44A3-8C55-24B5F1F7D372}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1470FFB5-0F80-49B0-8E95-F5490EB980BF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{312CBD48-A21A-4EEE-90C3-37F25D8D6569}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9308E03B-413C-4752-B074-3E9A4B72DFEB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{01ABC290-367D-4A24-94F5-E5D971679413}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B2E36FC5-6AE9-433C-A32D-F69516F30E29}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{207DF113-CCCD-4206-A0F7-B03781374D02}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{16265AB5-174C-4734-9669-3B6C925399DC}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{DA232F29-E993-4226-9882-E38A426FAF20}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{72CDEAA6-9BE8-4FFF-85DB-48D2FFE5E844}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BE60AAEE-1397-48E8-A0BD-AACC902B00BD}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E951597C-96D5-44D2-8853-2B01025924DB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E6EB1380-6AEB-425C-9370-C17FD0E71827}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{609A70E6-E726-40F9-AB73-C1DE3A12357A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{415A55B9-6ED1-42DC-8EDC-FE41F259321B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4159DF9F-FAD8-4988-AC00-6A12A899B93F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9C9D2ACF-79E6-478E-9D88-830699806EA2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{95C36949-43DB-4A12-AF45-1D986ED5360A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3896,7 +3896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72BB5861-1AA0-46C0-968D-056D4A2AFF87}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F3FE9F-124B-4A2F-9822-60430DA6049E}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="A1:F100"/>
   <sheetViews>
@@ -5123,18 +5123,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4628FF0B-CE9B-4BFC-9DCF-850F175E4A97}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5366FF1F-3B43-4B04-A05F-B72CF3FA8115}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{47773CC4-3118-43DC-BCE9-C12F339F261A}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{246C4BA7-F656-43F8-9818-EB8E241A0886}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E68D5385-C586-4A79-806F-318818B0CABB}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A96763B1-58ED-400A-888A-B7C2E035BA38}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{340E9688-812B-401B-8FE7-1F72815B217B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B37D3B7D-1A03-4768-AABE-C1CF06F5B0DD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{58F6A7BD-F1FC-4EFB-9F6C-AE22481DE065}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2DDBDD5C-7772-483B-A8F9-C6701CF49CD7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{56D427DB-A3C4-4CFF-BA2E-3C8FEAA0F3BE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E42F548B-C3CF-4416-91C2-2101F90807D2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{15E6BAA4-9D9E-4F18-8F46-540BDCF6ADA2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{772D2EAB-B317-4EB4-AD7C-29317C62D762}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B72425A9-08A3-4156-8A35-4002163BE704}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{44562485-D37B-4105-B519-9747CE182D30}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{52D272FD-9811-4C43-9A21-38B551A9FD7D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{06775B42-CDDC-498D-874F-F90EF001A56A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AA2E8106-CAA2-49F3-AA5C-15CFD34614B3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4ED30890-2B26-47CA-A36B-4C8E1B26565A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{81FF6584-43D6-40DB-9D77-1FA93CDC028E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2BB4931E-BFAC-40EF-872C-AEA6B2638546}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9CE26994-1292-4E92-B773-917AE966D82F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7ECFFA6D-EA17-48F1-9C80-A1ABC4FF4698}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5147,7 +5147,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D671F6F9-CE93-482B-A8A8-1E400CD87B05}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A8C994-BD4B-489A-A914-242A073B7F21}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="A1:F100"/>
   <sheetViews>
@@ -6370,18 +6370,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8B91F85E-8A49-492F-BD38-294D77379AF6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DBDFB364-5705-490E-9079-6E2C58F423AA}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{46A0C687-E585-4301-851A-2266132BF779}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{014038C3-377B-4262-83AA-D1B05AF97DDB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6F83B941-3EBA-486B-8376-E476E41647CE}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{042EC11F-7D12-4B0A-965B-81CE37B82F06}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3F5899FF-2D91-444C-8A4E-7A927DB006F2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5C1ED23C-C173-4CBF-9AB8-B7BFD50458CE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{83F254B2-5BA2-4E59-A029-B8D56F6EDBD4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C6515FE0-7BAD-459B-8653-F40288BE1962}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DA22A2E5-8D52-4184-93B3-C6759654F6E5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BC1F606D-4C80-4ED1-A155-F767B256DCCB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A282CFC0-CC8D-47ED-9ED9-A05505CB54E4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8B8233CD-3157-441F-BFD1-AD9BF8D9D2E2}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CC03295F-2F4C-44B9-A557-A1C445809B86}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{018A8176-7B88-4680-ABB2-A0B4035ED114}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{59216320-275B-43EE-A452-EE0F881CF833}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{24149B7F-DC5D-4A9C-80BF-BB1328923065}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2876DE41-D832-446D-89F7-98710AAB5606}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A02A4577-0705-4C56-8F75-11F55A978328}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{00B86A12-1ADE-49A6-ADCE-23073164C5A2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6662BC7A-21E9-4E9E-95B7-64D656DC56C4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F3C5B3B3-6FC7-4632-9333-D5D1F0559428}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{27206A5A-96C1-4594-B00D-2FF8B4D4F1A3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6394,7 +6394,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3480A05B-767E-4884-9B00-C3387E96D4F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7044FE20-208C-4099-ACA1-DED502EC8B38}">
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7652,18 +7652,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{508C70F3-192F-4695-9453-BA0B9C124C2A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D72E211E-6C6C-4B61-A84F-646C751A835E}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B41CE114-4D93-4ADB-BCFF-653A556EEEA9}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{FD884132-4EF4-485F-B5A2-910B15F62E26}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CA078691-A10B-4773-A34A-992621D56DB5}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E171A657-456C-4A55-AF2E-7B3378A8222C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{18D71E2D-1CDD-4D3A-BCCB-56ED1FD07468}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D87DDA55-B8E3-4522-8F29-02953CC54B6B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1F5C26F7-A4EA-4B54-AA05-336B33CD5D4A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E07A4B82-0FBA-4C38-8F59-82EDBF120B0B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C23C52D2-7FE8-470C-8CDF-5756651328A0}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8795C256-0883-4BD0-A663-2C7EEC652760}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9EE2A433-CC91-46EE-81B4-E80D071641AE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B5C6818D-A8C7-40CD-8282-9EC00D49965E}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4DED3BE9-44C5-4B0D-A726-B646574BFC14}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4FCFF4FA-7E5E-42A4-A9AB-546F42059CE3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AA61774C-486F-48E1-A270-1987A539987B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D0A037DA-2874-4D0D-B38E-2749FA6EF3DF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A9BCFF3D-DAFA-48DE-A1A1-4D7FC4A85BD7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{522EEC3E-8C4B-4CAF-AEBD-B7F3CF029E63}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FB2DED9B-F569-4FBC-81B5-9CA9610AE358}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FE590A23-1C18-4BB0-B166-BF8C0892D317}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FFE7DE64-044A-44EE-8FC6-D5DD138D1FA3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B5C8F501-80D1-456D-A939-3221805615AA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7676,7 +7676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6945E57B-9D3F-41EA-BA18-5E90C1419059}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1769B013-DAEE-43A9-B74A-B496947DC200}">
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8934,18 +8934,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E1B39368-BFB5-4E87-8F57-7E4A32555CC6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A20E97C0-C47A-4DCB-ABBC-4E5871B9B180}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0C531955-CBE2-4C02-BB17-05ACF9B2A1A1}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B2CE5504-4BE2-4EC8-A06F-F6BA7C0D94E2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AA28A0F0-D337-458F-BCE8-19F0D8D3111B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DA3D6562-B8F5-42E9-A818-826D5E03AC92}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EA95DF5B-C025-48AB-B369-B693FA65A21A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{931D6569-BA7A-4A34-8748-C8CB561BEA2D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{75F58664-3E93-49F4-B787-777CA885D113}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{ED92A3B4-2880-401B-8819-105DD8AA6FFF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F5D68D5F-5824-41DE-8FF5-7BEC0B36623A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{687B6766-C4C7-47C9-ABBE-3D44985FA98B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{042452FC-C996-41EA-859C-92ECF50546C6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D1D0B2CC-1655-48FA-8605-4EC2CAE95822}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{AC681688-0D5F-40CD-BF30-E07D859B9890}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4B54FA3A-E1A3-4CAE-B66D-744BA2ACAFA2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3A7F83ED-5215-465D-B388-304F9B8E3E47}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4A1CC921-382B-4144-B53A-9E7A7B9312AA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BB2E2B90-94E8-4111-916B-BD8CD8662EB4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B60FC010-81D3-499F-8CFF-6A9E1BE3F3A8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3CB854AC-6E65-4007-9911-A46FEE537E69}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E7A4ABB1-6334-496B-A098-329B848AEA95}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9C9A4F60-DB6B-43FB-8E5D-35660739B106}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{ECB5612F-3C54-4F31-A62D-71F223753B74}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8958,7 +8958,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{505037BD-C8B4-4A72-980A-B7EC4159E17E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{910254C7-3FCF-48A3-9C73-E9C6524810A5}">
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10216,18 +10216,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{313CFD7B-BAA0-42DA-853A-6E88B39D57B1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F69580E7-65FE-45EB-9B64-604B945485BA}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7C8A890E-AB5A-44F1-8C92-82E6251126F1}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{13DC7B79-6DB9-4A16-8CEC-9037BC9EEBA8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{607569D8-755B-4971-BEE1-67129A3E64D0}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F46725D5-8E26-43AD-9EDD-D5A58A2E0AB8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{313E7CE3-4FDE-47AC-807D-507102E51068}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D917036F-2EE6-4AF6-812E-55D6866C8A99}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{09E697E6-253F-4989-8EFE-CFCD7DEDCECC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F1F22800-DF5C-48BD-9ABD-2E16A4AE045C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EC07D7DD-4B33-4794-9C11-ADB4B742223C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{010B7002-D4B5-447C-B199-FF9B7FC33F2E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{698917C6-5F75-448A-9C71-C56301E41D5E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{51BB2864-5237-41A1-B44B-48EAB128DA26}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F388A50B-3964-40AD-8B1E-CADDA048DB29}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8C180737-C2EB-491A-9706-F6696AC34F05}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C215F14D-6631-4DD4-BE3D-51B455E39768}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6BB96847-B94A-42CD-9325-AC10AB80AE29}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8422317A-B703-4E9F-8A82-9EED6DD9F526}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AB0030D5-143D-4A43-B0E9-191FEA33667A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CCB720BD-69DA-4827-8824-072F871DE7B2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8ED14486-5C19-4D43-96E6-345F91F2DE52}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D5EB8ACE-F04F-440F-BF5E-D81AD51201FE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3AF0A4AE-0AC3-411F-940C-12A3C40B55F1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10240,7 +10240,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{696D05C2-E3DF-4CD4-983C-56183962B8D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED3D7E3-8FF2-4AAB-87AD-3D30DE4D2B01}">
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11498,18 +11498,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BB83A009-F433-4401-AD75-903593AB0C45}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AB85882C-2ECE-4E77-8C1B-F5A71E24F0BC}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{61C3FECF-29A4-49C9-940C-456996160133}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{DB44CC67-57B7-417A-9B1C-4328F1FDA691}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{86906A06-5CD7-4821-A647-9AA4CBE1CBA6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8104A909-30FC-4A6E-9360-1CE943EF8C44}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{38995C72-8ED0-4E7C-8CD2-195403911D3C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{72321294-3244-4A12-AFD7-E6ED1643FF31}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D69F213C-60F8-48DD-BE83-CA57B2CA08DE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1D5D9F19-BD8E-4BC6-96F3-7A4ADB96806E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{33C69C55-FC7A-4BF4-AE08-B9603B2C020A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{204E6C0E-0A20-452E-8274-26008CABDE64}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4651E783-638F-4107-BD5C-12447536F8AD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{078628AC-9068-4F42-833F-EC50536188E0}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A3C9DEAC-0AA6-43AD-B04D-4EE53BC40D6D}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4DBDCBEB-AF1D-413F-B379-5C57BEAC414A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{89789329-FE90-411B-9BA4-9A656C412FB0}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A1419142-0CE8-4712-AE1D-39A8784BF757}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CEC2441F-FDF1-43CB-AFD8-6AD7CEA14040}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8CD6D5D7-1734-4B5C-B527-AF9F57D6F62C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5E681500-3D56-4EDE-9875-5946A10C6BA5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{698CFC30-5FF8-429D-83C3-543B04D17CE8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E3205BBA-0E80-4ECD-BFC1-439997905584}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{62FD746F-3075-4B29-94AB-C8B2FFE097B8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11522,7 +11522,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{365E0A2A-C722-46F0-B56C-6D0BBAA6389B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD4D64D-965D-4ED9-A414-EDE54427FC0C}">
   <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12768,18 +12768,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{794D1D89-54DB-494C-8F6D-CCABB9206581}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CE31EE29-BB0A-4D21-8473-892A8DDDC2F6}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B8E6C71D-9FEC-41F2-A4FC-6C6D266B7ED4}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{674A7F82-5CD2-41E9-A493-A6D4303ABE4A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CDB9C1CC-DAB0-435A-919D-4902EFF69918}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3466F656-2B2F-4EAD-84E3-1E767B3B9743}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{07738EC5-58EB-4ED2-8A85-AB2C5B59E649}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FBC50538-1C9E-4236-ADFF-9BD2803E11E0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{37CD41A2-F9AD-4266-B8B0-35DD63B3C441}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B0EAE0CB-BC2D-4966-AD6A-097F04FF56AB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4379569D-3D09-48F8-A25F-2B96804328E3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{808E2643-A6DE-4D7A-801A-CA5EC049494F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{264448E1-4E8A-4806-9295-7843FAA9D427}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8674FE4F-C3BC-4452-8BE7-3173B873D7EB}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{82EBD778-0EDD-46D3-9912-D479FF033295}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0A78208D-F2F3-4F56-B8A0-C7EA995B4892}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FA395299-34C4-45B1-8661-446F13AF44FC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AB86BC61-F79A-48C0-9557-A49427FD684F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{25ED5CA9-EEF5-46FF-9E25-E1C7CE870838}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4B3FE54E-CECB-43D8-992F-85171AB5B6DB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1954683B-3B9B-46E3-85E2-1E9540887497}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5E199B14-972A-4318-9B4B-0510060F47D4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BC2C7848-98EF-4682-B11E-11A76C9C0CFD}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1D5878DF-7189-4C53-8073-913791C06374}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12792,7 +12792,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6E3E075-8F81-48E3-AD09-6DEF514EE178}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF037659-2354-4A74-B881-1D8A521CD80C}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="A1:F100"/>
   <sheetViews>
@@ -14035,18 +14035,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{432F736F-318B-4730-BBF4-E540EB1E62C9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EA01D084-2D27-40B1-95E5-1EC043987227}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3B5071DD-32E9-46D9-9AC5-04B67963D04B}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{FD97967C-FA3A-404B-A1D3-B6F9E74481CD}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DA697308-F304-4C80-BCB7-4A172A883ECB}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CF9F4D9A-46F0-4D05-81D2-152ADB65721B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{89C45B98-F4E9-4504-8B64-A00A3ED34660}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{202354C6-D5DB-4124-B68F-4146848B3535}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BDE09A52-F541-43BA-825C-574F5CE2B0B6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C249A7B1-DD5B-47E2-B234-145DA7B69FD9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2F2CC081-8B9F-4B73-8CBA-9696D7C2396C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D8FA3ED2-FC09-4B3E-A574-6A9902B25247}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C935DC7D-18D2-4940-92CD-D3C2B0BC7BC6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FCF6CB27-E8D8-4B88-B0F3-0D1935811CF3}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E7DE70B3-542D-4C19-8139-B204D5B7BC94}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1337E1E5-3519-49C3-AD88-41FE6F9353AD}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4E80020B-9D34-4AEA-B001-40342746012E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4232EEF4-4BDB-4B0F-8BFE-5E7BA5F0835D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EA05A167-4D48-4193-B792-6C64C2B8E649}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2839DCC9-0824-4EDF-ABC7-0FF8475C853A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D503F2A3-FF37-44DC-9940-85AAAFAEFE25}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{92C563C6-256A-4A20-9853-43EB33E8E4F0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A04D7E56-C0A9-4FAE-80CB-3E13B05029BC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1E22770B-E217-4364-B1CD-CF6505B17CAB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14059,7 +14059,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0DE3950-1E11-4395-8B59-EC3342DBC504}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E5B12A-FD2E-4FF6-83FD-F7245814CA35}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="A1:F100"/>
   <sheetViews>
@@ -15302,18 +15302,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A340A1A3-9548-4A20-B55F-865D1D3B6533}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CFE92A0A-CED8-4009-B8EC-5713F06DDF97}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A147A04E-75BA-4205-8119-2080C536C56C}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{432EBF07-BF41-4AA9-AD18-D8BC08892BA7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{597383FD-477F-45FA-B5D5-F0178E2E7AE6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{05ECDDF5-F485-4183-BE6F-DABC9F8CC067}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D779BD82-56A1-42C9-88DD-A232E3A49D2E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{17144933-D4DB-4469-82BC-985D79FCFCE4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9CFC033F-FCC0-4CCD-90A6-0C03942A5A1E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AD83E88E-1FE9-4BFA-AC39-AA6AD880293B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3720501A-F2D8-4049-A5DD-0A0D752D18F9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BD8A4224-D3B9-407D-B546-F7170C9B5DC1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{93283F23-B1A3-456B-9DA7-CE70FAA12128}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B3083799-CD06-40FA-9E27-E79B4E177461}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{35A54D36-758D-48D4-845B-F1D724554441}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{FB7B2186-6CC8-4844-B802-26E34E397671}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C84A4A35-5050-46EE-A58F-A5D00237D299}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B2D7993A-EA92-414D-B4F9-7274B7552B86}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DCC484FC-1584-4C77-A872-8FD2D6C74618}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E8F265FD-9571-4078-B420-F8F08864904D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5DE33FBF-BC71-43A3-981E-FF9E8B7BCD1B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BAC1ACA6-3DE4-4502-8223-D1495F4673A6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{61F6F990-B862-4169-9B4F-14C043931427}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A9F15A4D-4BA4-444A-BF94-E95D69AD212C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15326,7 +15326,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C94E1895-7052-496C-8EC9-E1FA304F0900}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A322E131-5FAA-47F7-AFEC-900FDC3D8F21}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="A1:F100"/>
   <sheetViews>
@@ -16565,18 +16565,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B0EF417D-EB92-4BC8-BB15-378342B6CCB3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{41A9F712-91CA-49B2-9769-FFBF3AEF8591}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{40C2EA12-467F-4DCE-8060-6BF334214F99}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F17FC427-8B71-4403-9718-357F1B3E1652}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{915F9C7A-92B6-4779-BE80-E6203A73B750}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{471C4868-7E78-4D52-9122-5D1101952C55}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9F73E7C9-A3D3-4E8F-8AE1-2AE32D191644}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{08D2EEBD-A1F7-4D04-9E82-F6BF7CB49C48}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1C3EE113-98F3-4CBA-ABB8-4E5A299D1CD8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{77C5C2A9-2411-4D6D-A7E8-D45D5ECD9AEC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D47C54C8-F41C-465C-A45E-17CEC3D7D964}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DF7C116D-D20E-407A-88BC-DBFF133299E7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C0050C7A-3CFE-4376-858F-ED73CB05D73B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{149C903A-5610-44AB-A652-1F2147FF4763}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8ED194D7-FFC5-40C1-89E1-60F903134EFA}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{77BA0C9B-630E-4FE4-8292-496070A5DB34}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2A39EC6B-A226-43F4-84A5-EA11D1D614FB}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9A63CDDE-C971-437D-8442-8D8DF0FBDBE8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1D26C42B-03E1-4359-A2D7-6C44B312C68A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{893DD5E3-E34D-4E3A-9855-C62424FD9320}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9E77CD19-D89D-401B-B08A-7656AD22E2C5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B365A763-26D3-4CEE-BF30-BAEDB3780460}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5234522A-8599-4E95-9715-184625E5C970}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9DC64ED2-D9D4-47B1-9A8C-04711ACD0595}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
